--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/99/word_level_predictions_99.xlsx
@@ -1149,393 +1149,393 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2634,208 +2634,208 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8533,81 +8533,81 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>15</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Detected</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
-        </is>
-      </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>Detected</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E157" s="2" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -20025,7 +20025,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G377" t="b">
@@ -20049,7 +20049,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G378" t="b">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/99/word_level_predictions_99.xlsx
@@ -1149,393 +1149,393 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2634,208 +2634,208 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -8557,57 +8557,57 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -20025,7 +20025,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G377" t="b">
@@ -20049,7 +20049,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G378" t="b">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
